--- a/Mapping - Automation.xlsx
+++ b/Mapping - Automation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Downloads\template_automation_dual_mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798F25F-6A45-4484-BD9F-7F0BE4E6002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F84430-2FC7-4689-841C-F86EF0532C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{2AA11D0B-6118-4F0A-BE6B-D5C0523DDDF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2AA11D0B-6118-4F0A-BE6B-D5C0523DDDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="255">
   <si>
     <t>Attributes</t>
   </si>
@@ -1614,13 +1614,16 @@
   </si>
   <si>
     <t>Zivame</t>
+  </si>
+  <si>
+    <t>Category / 54 Images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1649,8 +1652,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1669,8 +1685,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1704,11 +1726,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,12 +1757,19 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C7D4D9D9-3E69-4457-9032-19E7375DF6BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2060,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E7237D-448F-403D-A4CA-508ED9BFEADC}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7036,6 +7077,23 @@
         <v>59</v>
       </c>
     </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7046,7 +7104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC2B722-B1AB-40A8-B2B5-FAC56D609522}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/Mapping - Automation.xlsx
+++ b/Mapping - Automation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F84430-2FC7-4689-841C-F86EF0532C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26D14B-FF74-4C49-994A-DEA5F34D851A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2AA11D0B-6118-4F0A-BE6B-D5C0523DDDF3}"/>
   </bookViews>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="254">
   <si>
     <t>Attributes</t>
   </si>
@@ -1614,9 +1614,6 @@
   </si>
   <si>
     <t>Zivame</t>
-  </si>
-  <si>
-    <t>Category / 54 Images</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,9 +1756,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7079,12 +7073,12 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B292" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="B292" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D292" s="3" t="s">
